--- a/src/resources/matriz_sintaxis.xlsx
+++ b/src/resources/matriz_sintaxis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguir\Desktop\compi\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5426CD5D-2BA5-487B-AD9C-67F157A78E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810343E4-3BF3-4F87-A707-8C8AD2AC2B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6C56674-CF05-41A6-99FF-8D906A4082A8}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{D6C56674-CF05-41A6-99FF-8D906A4082A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1205,9 +1205,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4674143A-35AC-4966-BCD5-4F09074A1FC3}">
   <dimension ref="A1:EA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BS3" activeCellId="1" sqref="DK4 BS3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32476,158 +32476,158 @@
       <c r="A80" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B80" s="8">
-        <v>553</v>
+      <c r="B80" s="9">
+        <v>184</v>
       </c>
       <c r="C80" s="8">
         <v>553</v>
       </c>
-      <c r="D80" s="8">
-        <v>553</v>
-      </c>
-      <c r="E80" s="8">
-        <v>553</v>
+      <c r="D80" s="9">
+        <v>184</v>
+      </c>
+      <c r="E80" s="9">
+        <v>184</v>
       </c>
       <c r="F80" s="8">
         <v>553</v>
       </c>
-      <c r="G80" s="8">
-        <v>553</v>
+      <c r="G80" s="9">
+        <v>184</v>
       </c>
       <c r="H80" s="8">
         <v>553</v>
       </c>
-      <c r="I80" s="8">
-        <v>553</v>
-      </c>
-      <c r="J80" s="8">
-        <v>553</v>
-      </c>
-      <c r="K80" s="8">
-        <v>553</v>
-      </c>
-      <c r="L80" s="8">
-        <v>553</v>
-      </c>
-      <c r="M80" s="8">
-        <v>553</v>
-      </c>
-      <c r="N80" s="8">
-        <v>553</v>
-      </c>
-      <c r="O80" s="8">
-        <v>553</v>
-      </c>
-      <c r="P80" s="8">
-        <v>553</v>
+      <c r="I80" s="9">
+        <v>184</v>
+      </c>
+      <c r="J80" s="9">
+        <v>184</v>
+      </c>
+      <c r="K80" s="9">
+        <v>184</v>
+      </c>
+      <c r="L80" s="9">
+        <v>184</v>
+      </c>
+      <c r="M80" s="9">
+        <v>184</v>
+      </c>
+      <c r="N80" s="9">
+        <v>184</v>
+      </c>
+      <c r="O80" s="9">
+        <v>184</v>
+      </c>
+      <c r="P80" s="9">
+        <v>184</v>
       </c>
       <c r="Q80" s="8">
         <v>553</v>
       </c>
-      <c r="R80" s="8">
-        <v>553</v>
-      </c>
-      <c r="S80" s="8">
-        <v>553</v>
-      </c>
-      <c r="T80" s="8">
-        <v>553</v>
-      </c>
-      <c r="U80" s="8">
-        <v>553</v>
-      </c>
-      <c r="V80" s="8">
-        <v>553</v>
-      </c>
-      <c r="W80" s="8">
-        <v>553</v>
-      </c>
-      <c r="X80" s="8">
-        <v>553</v>
+      <c r="R80" s="9">
+        <v>184</v>
+      </c>
+      <c r="S80" s="9">
+        <v>184</v>
+      </c>
+      <c r="T80" s="9">
+        <v>184</v>
+      </c>
+      <c r="U80" s="9">
+        <v>184</v>
+      </c>
+      <c r="V80" s="9">
+        <v>184</v>
+      </c>
+      <c r="W80" s="9">
+        <v>184</v>
+      </c>
+      <c r="X80" s="9">
+        <v>184</v>
       </c>
       <c r="Y80" s="8">
         <v>553</v>
       </c>
-      <c r="Z80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AA80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AB80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AC80" s="8">
-        <v>553</v>
+      <c r="Z80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AA80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AB80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AC80" s="9">
+        <v>184</v>
       </c>
       <c r="AD80" s="8">
         <v>553</v>
       </c>
-      <c r="AE80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AF80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AG80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AH80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AI80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AJ80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AK80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AL80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AM80" s="8">
-        <v>553</v>
+      <c r="AE80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AF80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AG80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AH80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AI80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AJ80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AK80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AL80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AM80" s="9">
+        <v>184</v>
       </c>
       <c r="AN80" s="8">
         <v>553</v>
       </c>
-      <c r="AO80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AP80" s="8">
-        <v>553</v>
+      <c r="AO80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AP80" s="9">
+        <v>184</v>
       </c>
       <c r="AQ80" s="8">
         <v>553</v>
       </c>
-      <c r="AR80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AS80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AT80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AU80" s="8">
-        <v>553</v>
-      </c>
-      <c r="AV80" s="8">
-        <v>553</v>
+      <c r="AR80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AS80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AT80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AU80" s="9">
+        <v>184</v>
+      </c>
+      <c r="AV80" s="9">
+        <v>184</v>
       </c>
       <c r="AW80" s="10">
         <v>171</v>
       </c>
-      <c r="AX80" s="8">
-        <v>553</v>
+      <c r="AX80" s="9">
+        <v>184</v>
       </c>
       <c r="AY80" s="8">
         <v>553</v>
       </c>
-      <c r="AZ80" s="8">
-        <v>553</v>
+      <c r="AZ80" s="9">
+        <v>184</v>
       </c>
       <c r="BA80" s="8">
         <v>553</v>
@@ -32662,8 +32662,8 @@
       <c r="BK80" s="8">
         <v>553</v>
       </c>
-      <c r="BL80" s="8">
-        <v>553</v>
+      <c r="BL80" s="9">
+        <v>184</v>
       </c>
       <c r="BM80" s="8">
         <v>553</v>
@@ -32674,8 +32674,8 @@
       <c r="BO80" s="8">
         <v>553</v>
       </c>
-      <c r="BP80" s="8">
-        <v>553</v>
+      <c r="BP80" s="9">
+        <v>184</v>
       </c>
       <c r="BQ80" s="8">
         <v>553</v>
@@ -32683,8 +32683,8 @@
       <c r="BR80" s="8">
         <v>553</v>
       </c>
-      <c r="BS80" s="8">
-        <v>553</v>
+      <c r="BS80" s="9">
+        <v>184</v>
       </c>
       <c r="BT80" s="8">
         <v>553</v>
@@ -32806,14 +32806,14 @@
       <c r="DG80" s="8">
         <v>553</v>
       </c>
-      <c r="DH80" s="8">
-        <v>553</v>
+      <c r="DH80" s="9">
+        <v>184</v>
       </c>
       <c r="DI80" s="8">
         <v>553</v>
       </c>
-      <c r="DJ80" s="8">
-        <v>553</v>
+      <c r="DJ80" s="9">
+        <v>184</v>
       </c>
       <c r="DK80" s="8">
         <v>553</v>
@@ -32860,8 +32860,8 @@
       <c r="DY80" s="8">
         <v>553</v>
       </c>
-      <c r="DZ80" s="8">
-        <v>553</v>
+      <c r="DZ80" s="9">
+        <v>184</v>
       </c>
       <c r="EA80" s="8">
         <v>553</v>
@@ -34847,139 +34847,139 @@
         <v>196</v>
       </c>
       <c r="B86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C86" s="10">
         <v>178</v>
       </c>
       <c r="D86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F86" s="10">
         <v>178</v>
       </c>
       <c r="G86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H86" s="10">
         <v>178</v>
       </c>
       <c r="I86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="N86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="O86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="P86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="R86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="S86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="T86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="U86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="V86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="W86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Y86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Z86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AA86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AB86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AC86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AD86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AE86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AF86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AH86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AI86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AJ86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AK86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AM86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AN86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AO86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AP86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AQ86" s="10">
         <v>178</v>
       </c>
       <c r="AR86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AS86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AT86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AU86" s="10">
         <v>178</v>
@@ -34988,16 +34988,16 @@
         <v>184</v>
       </c>
       <c r="AW86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AX86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AY86" s="10">
         <v>178</v>
       </c>
       <c r="AZ86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BA86" s="10">
         <v>178</v>
@@ -35015,25 +35015,25 @@
         <v>178</v>
       </c>
       <c r="BF86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BG86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BH86" s="10">
         <v>178</v>
       </c>
       <c r="BI86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BJ86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BK86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BL86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BM86" s="10">
         <v>178</v>
@@ -35051,46 +35051,46 @@
         <v>178</v>
       </c>
       <c r="BR86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BS86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BT86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BU86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BV86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BW86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BX86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BY86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BZ86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CA86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CB86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CC86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CD86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CE86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CF86" s="10">
         <v>178</v>
@@ -35129,40 +35129,40 @@
         <v>178</v>
       </c>
       <c r="CR86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CS86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CT86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CU86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CV86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CW86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CX86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CY86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CZ86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DA86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DB86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DC86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DD86" s="10">
         <v>178</v>
@@ -35177,13 +35177,13 @@
         <v>178</v>
       </c>
       <c r="DH86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DI86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DJ86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DK86" s="10">
         <v>178</v>
@@ -35216,22 +35216,22 @@
         <v>177</v>
       </c>
       <c r="DU86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DV86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DW86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DX86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DY86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="DZ86" s="8">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="EA86" s="10">
         <v>178</v>
@@ -35637,139 +35637,139 @@
         <v>198</v>
       </c>
       <c r="B88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C88" s="10">
         <v>181</v>
       </c>
       <c r="D88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F88" s="10">
         <v>181</v>
       </c>
       <c r="G88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H88" s="10">
         <v>181</v>
       </c>
       <c r="I88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="O88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="P88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Q88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="R88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="S88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="T88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="U88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="V88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="W88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="X88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Y88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Z88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AA88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AB88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AC88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AD88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AE88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AF88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AG88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AH88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AI88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AJ88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AK88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AL88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AN88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AO88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AP88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AQ88" s="10">
         <v>181</v>
       </c>
       <c r="AR88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AS88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AT88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AU88" s="10">
         <v>181</v>
@@ -35778,16 +35778,16 @@
         <v>184</v>
       </c>
       <c r="AW88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AX88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AY88" s="10">
         <v>181</v>
       </c>
       <c r="AZ88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BA88" s="10">
         <v>181</v>
@@ -35805,25 +35805,25 @@
         <v>181</v>
       </c>
       <c r="BF88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BG88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BH88" s="10">
         <v>181</v>
       </c>
       <c r="BI88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BJ88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BK88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BL88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BM88" s="10">
         <v>181</v>
@@ -35841,46 +35841,46 @@
         <v>181</v>
       </c>
       <c r="BR88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BS88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BT88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BU88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BV88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BW88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BX88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BY88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BZ88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CA88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CB88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CC88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CD88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CE88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CF88" s="10">
         <v>181</v>
@@ -35919,40 +35919,40 @@
         <v>181</v>
       </c>
       <c r="CR88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CS88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CT88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CU88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CV88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CW88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CX88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CY88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CZ88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DA88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DB88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DC88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DD88" s="10">
         <v>181</v>
@@ -35967,13 +35967,13 @@
         <v>181</v>
       </c>
       <c r="DH88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DI88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DJ88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DK88" s="10">
         <v>181</v>
@@ -36003,25 +36003,25 @@
         <v>181</v>
       </c>
       <c r="DT88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DU88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DV88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DW88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DX88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DY88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="DZ88" s="8">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="EA88" s="10">
         <v>180</v>

--- a/src/resources/matriz_sintaxis.xlsx
+++ b/src/resources/matriz_sintaxis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguir\Desktop\compi\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810343E4-3BF3-4F87-A707-8C8AD2AC2B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6326F-95E5-4EC9-A2AD-3CEAB25E8769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{D6C56674-CF05-41A6-99FF-8D906A4082A8}"/>
   </bookViews>
@@ -1205,9 +1205,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4674143A-35AC-4966-BCD5-4F09074A1FC3}">
   <dimension ref="A1:EA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO33" sqref="AO33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13917,8 +13917,8 @@
       <c r="C33" s="8">
         <v>527</v>
       </c>
-      <c r="D33" s="8">
-        <v>527</v>
+      <c r="D33" s="10">
+        <v>66</v>
       </c>
       <c r="E33" s="9">
         <v>184</v>
@@ -13926,8 +13926,8 @@
       <c r="F33" s="8">
         <v>527</v>
       </c>
-      <c r="G33" s="8">
-        <v>527</v>
+      <c r="G33" s="10">
+        <v>66</v>
       </c>
       <c r="H33" s="8">
         <v>527</v>
@@ -13944,14 +13944,14 @@
       <c r="L33" s="9">
         <v>184</v>
       </c>
-      <c r="M33" s="8">
-        <v>527</v>
+      <c r="M33" s="10">
+        <v>66</v>
       </c>
       <c r="N33" s="9">
         <v>184</v>
       </c>
-      <c r="O33" s="8">
-        <v>527</v>
+      <c r="O33" s="10">
+        <v>66</v>
       </c>
       <c r="P33" s="9">
         <v>184</v>
@@ -13971,14 +13971,14 @@
       <c r="U33" s="9">
         <v>184</v>
       </c>
-      <c r="V33" s="8">
-        <v>527</v>
+      <c r="V33" s="10">
+        <v>66</v>
       </c>
       <c r="W33" s="9">
         <v>184</v>
       </c>
-      <c r="X33" s="8">
-        <v>527</v>
+      <c r="X33" s="10">
+        <v>66</v>
       </c>
       <c r="Y33" s="8">
         <v>527</v>
@@ -13986,8 +13986,8 @@
       <c r="Z33" s="9">
         <v>184</v>
       </c>
-      <c r="AA33" s="8">
-        <v>527</v>
+      <c r="AA33" s="10">
+        <v>66</v>
       </c>
       <c r="AB33" s="9">
         <v>184</v>
@@ -14001,8 +14001,8 @@
       <c r="AE33" s="9">
         <v>184</v>
       </c>
-      <c r="AF33" s="8">
-        <v>527</v>
+      <c r="AF33" s="10">
+        <v>66</v>
       </c>
       <c r="AG33" s="9">
         <v>184</v>
@@ -14013,17 +14013,17 @@
       <c r="AI33" s="9">
         <v>184</v>
       </c>
-      <c r="AJ33" s="8">
-        <v>527</v>
+      <c r="AJ33" s="10">
+        <v>66</v>
       </c>
       <c r="AK33" s="9">
         <v>184</v>
       </c>
-      <c r="AL33" s="8">
-        <v>527</v>
-      </c>
-      <c r="AM33" s="8">
-        <v>527</v>
+      <c r="AL33" s="10">
+        <v>66</v>
+      </c>
+      <c r="AM33" s="10">
+        <v>66</v>
       </c>
       <c r="AN33" s="8">
         <v>527</v>
@@ -24364,8 +24364,8 @@
       <c r="BJ59" s="8">
         <v>542</v>
       </c>
-      <c r="BK59" s="8">
-        <v>542</v>
+      <c r="BK59" s="10">
+        <v>132</v>
       </c>
       <c r="BL59" s="8">
         <v>542</v>
@@ -25154,8 +25154,8 @@
       <c r="BJ61" s="8">
         <v>543</v>
       </c>
-      <c r="BK61" s="8">
-        <v>543</v>
+      <c r="BK61" s="10">
+        <v>135</v>
       </c>
       <c r="BL61" s="8">
         <v>543</v>
@@ -35029,8 +35029,8 @@
       <c r="BJ86" s="8">
         <v>554</v>
       </c>
-      <c r="BK86" s="8">
-        <v>554</v>
+      <c r="BK86" s="10">
+        <v>178</v>
       </c>
       <c r="BL86" s="8">
         <v>554</v>
@@ -35819,8 +35819,8 @@
       <c r="BJ88" s="8">
         <v>555</v>
       </c>
-      <c r="BK88" s="8">
-        <v>555</v>
+      <c r="BK88" s="10">
+        <v>181</v>
       </c>
       <c r="BL88" s="8">
         <v>555</v>
